--- a/GA/src/f.xlsx
+++ b/GA/src/f.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawfiq/Desktop/thesis/GA/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3419E2D8-2E3C-4B40-A4CC-874401B6141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FBF48-E652-FE40-8B0E-D2952300FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{BA7A359E-2C20-F648-853B-D60448911875}"/>
+    <workbookView xWindow="72340" yWindow="8420" windowWidth="27240" windowHeight="16440" activeTab="4" xr2:uid="{BA7A359E-2C20-F648-853B-D60448911875}"/>
   </bookViews>
   <sheets>
     <sheet name="retailerA" sheetId="1" r:id="rId1"/>
     <sheet name="retailerB" sheetId="2" r:id="rId2"/>
+    <sheet name="retailerC" sheetId="3" r:id="rId3"/>
+    <sheet name="retailerD" sheetId="4" r:id="rId4"/>
+    <sheet name="retailerE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>collection-centerAVehicle1</t>
   </si>
@@ -52,6 +55,33 @@
   </si>
   <si>
     <t>collection-centerB</t>
+  </si>
+  <si>
+    <t>collection-centerC</t>
+  </si>
+  <si>
+    <t>collection-centerD</t>
+  </si>
+  <si>
+    <t>collection-centerE</t>
+  </si>
+  <si>
+    <t>collection-centerCVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerCVehicle2</t>
+  </si>
+  <si>
+    <t>collection-centerDVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerDVehicle2</t>
+  </si>
+  <si>
+    <t>collection-centerEVehicle1</t>
+  </si>
+  <si>
+    <t>collection-centerEVehicle2</t>
   </si>
 </sst>
 </file>
@@ -422,23 +452,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA57CE4-4E07-5C43-B52B-70AD54CABB9F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +487,17 @@
       <c r="C2" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -459,8 +507,17 @@
       <c r="C3" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,8 +527,17 @@
       <c r="C4" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -479,6 +545,135 @@
         <v>50</v>
       </c>
       <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
         <v>50</v>
       </c>
     </row>
@@ -489,23 +684,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC449076-AB68-B740-818F-C4F53F7450E3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C5"/>
+      <selection activeCell="D1" sqref="D1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,8 +722,17 @@
       <c r="C2" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -526,8 +742,17 @@
       <c r="C3" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -537,8 +762,17 @@
       <c r="C4" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,6 +780,840 @@
         <v>50</v>
       </c>
       <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D887CF7D-48DD-B842-A29F-E938B7E30D5C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE85DDA-3C76-ED4F-B1AF-7E6BF33428CE}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABCEE1A-C694-7343-AB85-C5E7B8FE5CB5}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="3">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>50</v>
+      </c>
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3">
         <v>50</v>
       </c>
     </row>
